--- a/Data.xlsx
+++ b/Data.xlsx
@@ -413,13 +413,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,110 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cheeseburgers</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>382748</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Crack</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>372183</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Milk</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cheese burger</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hat</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mop</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:ALK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,109 +437,34 @@
           <t>COUNT</t>
         </is>
       </c>
+      <c r="ALK1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cheeseburgers</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>382748</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crack</t>
+          <t>money</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>372183</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Milk</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3812</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4727</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cheese burger</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hat</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Car</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mop</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>92</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ALK3"/>
+  <dimension ref="A1:ALK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,33 +438,46 @@
         </is>
       </c>
       <c r="ALK1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Bananna</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>Nikolass</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>902</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Balls</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
